--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Sofcom Systems Ltd/Pruned_Excel/Semi_Final/Sofcom Systems Ltd_Semi_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Sofcom Systems Ltd/Pruned_Excel/Semi_Final/Sofcom Systems Ltd_Semi_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>Balance Sheet of Sofcom Systems(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,48 +62,6 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-  <si>
     <t>Cash Flow of Sofcom Systems(in Rs. Cr.)</t>
   </si>
   <si>
@@ -197,6 +158,9 @@
     <t>Quarterly Results of Sofcom Systems(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -251,139 +215,16 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Sep 13 Q2</t>
-  </si>
-  <si>
-    <t>Dec 13 Q3</t>
-  </si>
-  <si>
-    <t>Mar 14 Q4</t>
-  </si>
-  <si>
-    <t>Jun 14 Q1</t>
-  </si>
-  <si>
-    <t>Sep 14 Q2</t>
-  </si>
-  <si>
-    <t>Dec 14 Q3</t>
-  </si>
-  <si>
-    <t>Mar 15 Q4</t>
-  </si>
-  <si>
-    <t>Jun 15 Q1</t>
-  </si>
-  <si>
-    <t>Sep 15 Q2</t>
-  </si>
-  <si>
-    <t>Dec 15 Q3</t>
-  </si>
-  <si>
-    <t>Mar 16 Q4</t>
-  </si>
-  <si>
-    <t>Jun 16 Q1</t>
-  </si>
-  <si>
-    <t>Sep 16 Q2</t>
-  </si>
-  <si>
-    <t>Dec 16 Q3</t>
-  </si>
-  <si>
-    <t>Mar 17 Q4</t>
-  </si>
-  <si>
-    <t>Jun 17 Q1</t>
-  </si>
-  <si>
-    <t>Sep 17 Q2</t>
-  </si>
-  <si>
-    <t>Dec 17 Q3</t>
-  </si>
-  <si>
-    <t>Mar 18 Q4</t>
-  </si>
-  <si>
-    <t>Jun 18 Q1</t>
-  </si>
-  <si>
-    <t>Sep 18 Q2</t>
-  </si>
-  <si>
-    <t>Dec 18 Q3</t>
-  </si>
-  <si>
-    <t>Mar 19 Q4</t>
-  </si>
-  <si>
-    <t>Jun 19 Q1</t>
-  </si>
-  <si>
-    <t>Sep 19 Q2</t>
-  </si>
-  <si>
-    <t>Dec 19 Q3</t>
-  </si>
-  <si>
-    <t>Mar 20 Q4</t>
-  </si>
-  <si>
-    <t>Jun 20 Q1</t>
-  </si>
-  <si>
-    <t>Sep 20 Q2</t>
-  </si>
-  <si>
-    <t>Dec 20 Q3</t>
-  </si>
-  <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>Key Financial Ratios of Sofcom Systems(in Rs. Cr.)</t>
@@ -795,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,578 +682,623 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2011</v>
+      </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>3.78</v>
-      </c>
-      <c r="C2">
-        <v>-0.16</v>
       </c>
       <c r="D2">
         <v>-0.16</v>
       </c>
       <c r="E2">
+        <v>-0.16</v>
+      </c>
+      <c r="F2">
         <v>3.63</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.06</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.7</v>
-      </c>
-      <c r="I2">
-        <v>0.02</v>
       </c>
       <c r="J2">
         <v>0.02</v>
       </c>
       <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
         <v>3.22</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.47</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>3.78</v>
-      </c>
-      <c r="C3">
-        <v>-0.16</v>
       </c>
       <c r="D3">
         <v>-0.16</v>
       </c>
       <c r="E3">
+        <v>-0.16</v>
+      </c>
+      <c r="F3">
         <v>3.63</v>
-      </c>
-      <c r="F3">
-        <v>0.08</v>
       </c>
       <c r="G3">
         <v>0.08</v>
       </c>
       <c r="H3">
+        <v>0.08</v>
+      </c>
+      <c r="I3">
         <v>3.71</v>
       </c>
-      <c r="I3">
-        <v>0.01</v>
-      </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
+        <v>0.01</v>
+      </c>
+      <c r="L3">
         <v>3.54</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.16</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.71</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>3.78</v>
-      </c>
-      <c r="C4">
-        <v>-0.15</v>
       </c>
       <c r="D4">
         <v>-0.15</v>
       </c>
       <c r="E4">
+        <v>-0.15</v>
+      </c>
+      <c r="F4">
         <v>3.63</v>
-      </c>
-      <c r="F4">
-        <v>0.08</v>
       </c>
       <c r="G4">
         <v>0.08</v>
       </c>
       <c r="H4">
+        <v>0.08</v>
+      </c>
+      <c r="I4">
         <v>3.71</v>
       </c>
-      <c r="I4">
-        <v>0.01</v>
-      </c>
       <c r="J4">
         <v>0.01</v>
       </c>
       <c r="K4">
+        <v>0.01</v>
+      </c>
+      <c r="L4">
         <v>3.61</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3.71</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>4.63</v>
-      </c>
-      <c r="C5">
-        <v>-0.12</v>
       </c>
       <c r="D5">
         <v>-0.12</v>
       </c>
       <c r="E5">
+        <v>-0.12</v>
+      </c>
+      <c r="F5">
         <v>4.51</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.02</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.03</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.54</v>
-      </c>
-      <c r="I5">
-        <v>0.02</v>
       </c>
       <c r="J5">
         <v>0.02</v>
       </c>
       <c r="K5">
+        <v>0.02</v>
+      </c>
+      <c r="L5">
         <v>4.45</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.09</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4.54</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>4.63</v>
-      </c>
-      <c r="C6">
-        <v>-0.08</v>
       </c>
       <c r="D6">
         <v>-0.08</v>
       </c>
       <c r="E6">
+        <v>-0.08</v>
+      </c>
+      <c r="F6">
         <v>4.55</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.27</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8.82</v>
       </c>
-      <c r="I6">
-        <v>0.01</v>
-      </c>
       <c r="J6">
         <v>0.01</v>
       </c>
       <c r="K6">
+        <v>0.01</v>
+      </c>
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.83</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8.82</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>4.63</v>
-      </c>
-      <c r="C7">
-        <v>-0.05</v>
       </c>
       <c r="D7">
         <v>-0.05</v>
       </c>
       <c r="E7">
+        <v>-0.05</v>
+      </c>
+      <c r="F7">
         <v>4.58</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.08</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.83</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.41</v>
       </c>
-      <c r="I7">
-        <v>0.01</v>
-      </c>
       <c r="J7">
         <v>0.01</v>
       </c>
       <c r="K7">
+        <v>0.01</v>
+      </c>
+      <c r="L7">
         <v>5.17</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2.24</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7.41</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>4.63</v>
-      </c>
-      <c r="C8">
-        <v>-0.24</v>
       </c>
       <c r="D8">
         <v>-0.24</v>
       </c>
       <c r="E8">
+        <v>-0.24</v>
+      </c>
+      <c r="F8">
         <v>4.4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.12</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.49</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6.89</v>
       </c>
-      <c r="I8">
-        <v>0.01</v>
-      </c>
       <c r="J8">
         <v>0.01</v>
       </c>
       <c r="K8">
+        <v>0.01</v>
+      </c>
+      <c r="L8">
         <v>5.25</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.64</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>6.89</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>4.63</v>
-      </c>
-      <c r="C9">
-        <v>-0.47</v>
       </c>
       <c r="D9">
         <v>-0.47</v>
       </c>
       <c r="E9">
+        <v>-0.47</v>
+      </c>
+      <c r="F9">
         <v>4.16</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.31</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.31</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.47</v>
       </c>
-      <c r="I9">
-        <v>0.01</v>
-      </c>
       <c r="J9">
         <v>0.01</v>
       </c>
       <c r="K9">
+        <v>0.01</v>
+      </c>
+      <c r="L9">
         <v>5.32</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.15</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6.47</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>4.63</v>
-      </c>
-      <c r="C10">
-        <v>-0.79</v>
       </c>
       <c r="D10">
         <v>-0.79</v>
       </c>
       <c r="E10">
+        <v>-0.79</v>
+      </c>
+      <c r="F10">
         <v>3.84</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.23</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.51</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6.35</v>
       </c>
-      <c r="I10">
-        <v>0.01</v>
-      </c>
       <c r="J10">
         <v>0.01</v>
       </c>
       <c r="K10">
+        <v>0.01</v>
+      </c>
+      <c r="L10">
         <v>5.39</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.96</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>6.35</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>4.63</v>
-      </c>
-      <c r="C11">
-        <v>-1.03</v>
       </c>
       <c r="D11">
         <v>-1.03</v>
       </c>
       <c r="E11">
+        <v>-1.03</v>
+      </c>
+      <c r="F11">
         <v>3.6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.91</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6.51</v>
       </c>
-      <c r="I11">
-        <v>0.01</v>
-      </c>
       <c r="J11">
         <v>0.01</v>
       </c>
       <c r="K11">
+        <v>0.01</v>
+      </c>
+      <c r="L11">
         <v>5.47</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1.05</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6.51</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>4.63</v>
-      </c>
-      <c r="C12">
-        <v>-1.29</v>
       </c>
       <c r="D12">
         <v>-1.29</v>
       </c>
       <c r="E12">
+        <v>-1.29</v>
+      </c>
+      <c r="F12">
         <v>3.34</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.42</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3.17</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6.52</v>
       </c>
-      <c r="I12">
-        <v>0.01</v>
-      </c>
       <c r="J12">
         <v>0.01</v>
       </c>
       <c r="K12">
+        <v>0.01</v>
+      </c>
+      <c r="L12">
         <v>5.56</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.96</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>6.52</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>4.63</v>
-      </c>
-      <c r="C13">
-        <v>-1.54</v>
       </c>
       <c r="D13">
         <v>-1.54</v>
       </c>
       <c r="E13">
+        <v>-1.54</v>
+      </c>
+      <c r="F13">
         <v>3.09</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.55</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.43</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>6.52</v>
       </c>
-      <c r="I13">
-        <v>0.01</v>
-      </c>
       <c r="J13">
         <v>0.01</v>
       </c>
       <c r="K13">
+        <v>0.01</v>
+      </c>
+      <c r="L13">
         <v>5.65</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.88</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>6.52</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2023</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>4.63</v>
-      </c>
-      <c r="C14">
-        <v>0.55</v>
       </c>
       <c r="D14">
         <v>0.55</v>
       </c>
       <c r="E14">
+        <v>0.55</v>
+      </c>
+      <c r="F14">
         <v>5.19</v>
-      </c>
-      <c r="F14">
-        <v>0.04</v>
       </c>
       <c r="G14">
         <v>0.04</v>
       </c>
       <c r="H14">
+        <v>0.04</v>
+      </c>
+      <c r="I14">
         <v>5.23</v>
       </c>
-      <c r="I14">
-        <v>0.01</v>
-      </c>
       <c r="J14">
         <v>0.01</v>
       </c>
       <c r="K14">
+        <v>0.01</v>
+      </c>
+      <c r="L14">
         <v>0.33</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4.9</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5.23</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>4.63</v>
-      </c>
-      <c r="C15">
-        <v>0.73</v>
       </c>
       <c r="D15">
         <v>0.73</v>
       </c>
       <c r="E15">
+        <v>0.73</v>
+      </c>
+      <c r="F15">
         <v>5.36</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.04</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.17</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5.55</v>
       </c>
-      <c r="I15">
-        <v>0.01</v>
-      </c>
       <c r="J15">
         <v>0.01</v>
       </c>
       <c r="K15">
+        <v>0.01</v>
+      </c>
+      <c r="L15">
         <v>0.27</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>5.28</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.55</v>
       </c>
     </row>
@@ -1423,410 +1309,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2011</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>0.059</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.17</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>-0.14</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.03</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.052</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.059</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.37</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.33</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.01</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0.03</v>
       </c>
       <c r="I3">
+        <v>0.03</v>
+      </c>
+      <c r="J3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>0.059</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.067</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.03</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.06</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.04</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.06</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.84</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.85</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>-0.05</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.05</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.25</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-1.6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.87</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6">
         <v>0.05</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.04</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.72</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.83</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.13</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>-0.02</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.06</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>-0.26</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>-0.38</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.02</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.04</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>-0.31</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.6</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>-0.62</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>-0.02</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>-0.38</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.02</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>-0.067</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>-0.02</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.04</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>-0.33</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.08</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>-0.067</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.02</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>-0.35</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.03</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>-0.03</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>-0.001</v>
-      </c>
-      <c r="H12">
-        <v>0.09</v>
       </c>
       <c r="I12">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
+      <c r="J12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>-0.33</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.03</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>-0.11</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>-0.09</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.09</v>
       </c>
-      <c r="I13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
+      <c r="J13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>2023</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>2.31</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-3.48</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>6.56</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-3.07</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0.01</v>
@@ -1834,33 +1759,39 @@
       <c r="I14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.17</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.09</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.06</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.03</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>-0.01</v>
       </c>
-      <c r="H15">
-        <v>0.01</v>
-      </c>
       <c r="I15">
+        <v>0.01</v>
+      </c>
+      <c r="J15">
         <v>0.052</v>
       </c>
     </row>
@@ -1871,86 +1802,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0.03</v>
@@ -1959,46 +1893,46 @@
         <v>0.03</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>0.03</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.026</v>
       </c>
-      <c r="I2">
-        <v>0.249</v>
-      </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
         <v>0.03</v>
       </c>
       <c r="M2">
-        <v>0.065</v>
+        <v>0.03</v>
       </c>
       <c r="N2">
         <v>0.065</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>-0.018</v>
-      </c>
-      <c r="R2">
-        <v>0.08</v>
       </c>
       <c r="S2">
         <v>0.08</v>
@@ -2007,18 +1941,21 @@
         <v>0.08</v>
       </c>
       <c r="U2">
-        <v>0.178</v>
+        <v>0.08</v>
       </c>
       <c r="V2">
         <v>0.178</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="W2">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0.03</v>
@@ -2027,46 +1964,46 @@
         <v>0.03</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.03</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.026</v>
       </c>
-      <c r="I3">
-        <v>0.249</v>
-      </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K3">
+        <v>0.01</v>
+      </c>
+      <c r="L3">
         <v>0.02</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.03</v>
-      </c>
-      <c r="M3">
-        <v>0.065</v>
       </c>
       <c r="N3">
         <v>0.065</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>-0.018</v>
-      </c>
-      <c r="R3">
-        <v>0.08</v>
       </c>
       <c r="S3">
         <v>0.08</v>
@@ -2075,18 +2012,21 @@
         <v>0.08</v>
       </c>
       <c r="U3">
-        <v>0.178</v>
+        <v>0.08</v>
       </c>
       <c r="V3">
         <v>0.178</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>15</v>
+      <c r="W3">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0.03</v>
@@ -2095,46 +2035,46 @@
         <v>0.03</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.03</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0.026</v>
       </c>
-      <c r="I4">
-        <v>0.249</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0.02</v>
       </c>
       <c r="M4">
-        <v>0.065</v>
+        <v>0.02</v>
       </c>
       <c r="N4">
         <v>0.065</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>-0.018</v>
-      </c>
-      <c r="R4">
-        <v>0.08</v>
       </c>
       <c r="S4">
         <v>0.08</v>
@@ -2143,18 +2083,21 @@
         <v>0.08</v>
       </c>
       <c r="U4">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="V4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="W4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.14</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0.14</v>
@@ -2163,46 +2106,46 @@
         <v>0.14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.14</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.02</v>
       </c>
-      <c r="I5">
-        <v>0.249</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.08</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.1</v>
-      </c>
-      <c r="M5">
-        <v>0.04</v>
       </c>
       <c r="N5">
         <v>0.04</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>-0.018</v>
-      </c>
-      <c r="R5">
-        <v>0.03</v>
       </c>
       <c r="S5">
         <v>0.03</v>
@@ -2211,18 +2154,21 @@
         <v>0.03</v>
       </c>
       <c r="U5">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="V5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>17</v>
+      <c r="W5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>5.3</v>
@@ -2231,46 +2177,46 @@
         <v>5.3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>5.3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0.03</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.15</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5.25</v>
-      </c>
-      <c r="M6">
-        <v>0.05</v>
       </c>
       <c r="N6">
         <v>0.05</v>
       </c>
       <c r="O6">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="S6">
         <v>0.04</v>
@@ -2279,18 +2225,21 @@
         <v>0.04</v>
       </c>
       <c r="U6">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="V6">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>18</v>
+      <c r="W6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1.25</v>
@@ -2299,46 +2248,46 @@
         <v>1.25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1.25</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0.04</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.33</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0.16</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1.21</v>
-      </c>
-      <c r="M7">
-        <v>0.04</v>
       </c>
       <c r="N7">
         <v>0.04</v>
       </c>
       <c r="O7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="S7">
         <v>0.03</v>
@@ -2347,18 +2296,21 @@
         <v>0.03</v>
       </c>
       <c r="U7">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="V7">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="W7">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0.15</v>
@@ -2367,46 +2319,46 @@
         <v>0.15</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0.15</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0.05</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.29</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.41</v>
-      </c>
-      <c r="M8">
-        <v>-0.26</v>
       </c>
       <c r="N8">
         <v>-0.26</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
       <c r="P8">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>-0.08</v>
       </c>
       <c r="R8">
-        <v>-0.18</v>
+        <v>-0.08</v>
       </c>
       <c r="S8">
         <v>-0.18</v>
@@ -2415,18 +2367,21 @@
         <v>-0.18</v>
       </c>
       <c r="U8">
-        <v>-0.44</v>
+        <v>-0.18</v>
       </c>
       <c r="V8">
         <v>-0.44</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="W8">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1.1</v>
@@ -2435,46 +2390,46 @@
         <v>1.1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1.1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0.03</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.25</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.41</v>
-      </c>
-      <c r="M9">
-        <v>-0.31</v>
       </c>
       <c r="N9">
         <v>-0.31</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="P9">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>-0.08</v>
       </c>
       <c r="R9">
-        <v>-0.23</v>
+        <v>-0.08</v>
       </c>
       <c r="S9">
         <v>-0.23</v>
@@ -2483,18 +2438,21 @@
         <v>-0.23</v>
       </c>
       <c r="U9">
-        <v>-0.5600000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="V9">
         <v>-0.5600000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>21</v>
+      <c r="W9">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>1.115</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1.115</v>
@@ -2503,46 +2461,46 @@
         <v>1.115</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.115</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1.261</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0.02</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.29</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0.08</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.38</v>
-      </c>
-      <c r="M10">
-        <v>-0.38</v>
       </c>
       <c r="N10">
         <v>-0.38</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="P10">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>-0.06</v>
       </c>
       <c r="R10">
-        <v>-0.32</v>
+        <v>-0.06</v>
       </c>
       <c r="S10">
         <v>-0.32</v>
@@ -2551,18 +2509,21 @@
         <v>-0.32</v>
       </c>
       <c r="U10">
-        <v>-0.77</v>
+        <v>-0.32</v>
       </c>
       <c r="V10">
         <v>-0.77</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>22</v>
+      <c r="W10">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>1.115</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1.115</v>
@@ -2571,46 +2532,46 @@
         <v>1.115</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.115</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>1.261</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0.02</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.24</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.33</v>
-      </c>
-      <c r="M11">
-        <v>-0.33</v>
       </c>
       <c r="N11">
         <v>-0.33</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0.33</v>
       </c>
       <c r="P11">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>-0.08</v>
       </c>
       <c r="R11">
-        <v>-0.24</v>
+        <v>-0.08</v>
       </c>
       <c r="S11">
         <v>-0.24</v>
@@ -2619,18 +2580,21 @@
         <v>-0.24</v>
       </c>
       <c r="U11">
-        <v>-0.58</v>
+        <v>-0.24</v>
       </c>
       <c r="V11">
         <v>-0.58</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>23</v>
+      <c r="W11">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>1.115</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1.115</v>
@@ -2639,46 +2603,46 @@
         <v>1.115</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1.115</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>1.261</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0.02</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.26</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.35</v>
-      </c>
-      <c r="M12">
-        <v>-0.35</v>
       </c>
       <c r="N12">
         <v>-0.35</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="P12">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>-0.09</v>
       </c>
       <c r="R12">
-        <v>-0.26</v>
+        <v>-0.09</v>
       </c>
       <c r="S12">
         <v>-0.26</v>
@@ -2687,18 +2651,21 @@
         <v>-0.26</v>
       </c>
       <c r="U12">
-        <v>-0.63</v>
+        <v>-0.26</v>
       </c>
       <c r="V12">
         <v>-0.63</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>24</v>
+      <c r="W12">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>1.115</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1.115</v>
@@ -2707,46 +2674,46 @@
         <v>1.115</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.115</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>1.261</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>0.01</v>
+      </c>
+      <c r="J13">
         <v>0.25</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.33</v>
-      </c>
-      <c r="M13">
-        <v>-0.33</v>
       </c>
       <c r="N13">
         <v>-0.33</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-0.33</v>
       </c>
       <c r="P13">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>-0.08</v>
       </c>
       <c r="R13">
-        <v>-0.25</v>
+        <v>-0.08</v>
       </c>
       <c r="S13">
         <v>-0.25</v>
@@ -2755,18 +2722,21 @@
         <v>-0.25</v>
       </c>
       <c r="U13">
-        <v>-0.6</v>
+        <v>-0.25</v>
       </c>
       <c r="V13">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>25</v>
+      <c r="W13">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>2.76</v>
@@ -2775,46 +2745,46 @@
         <v>2.76</v>
       </c>
       <c r="E14">
+        <v>2.76</v>
+      </c>
+      <c r="F14">
         <v>1.46</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.22</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0.02</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.18</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>1.71</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.91</v>
-      </c>
-      <c r="M14">
-        <v>2.31</v>
       </c>
       <c r="N14">
         <v>2.31</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="P14">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0.21</v>
       </c>
       <c r="R14">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="S14">
         <v>2.09</v>
@@ -2823,18 +2793,21 @@
         <v>2.09</v>
       </c>
       <c r="U14">
-        <v>5.04</v>
+        <v>2.09</v>
       </c>
       <c r="V14">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>26</v>
+      <c r="W14">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
-        <v>0.36</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0.36</v>
@@ -2843,46 +2816,46 @@
         <v>0.36</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0.36</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0.026</v>
       </c>
-      <c r="I15">
-        <v>0.249</v>
-      </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0.12</v>
       </c>
       <c r="M15">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="N15">
         <v>0.24</v>
       </c>
       <c r="O15">
+        <v>0.24</v>
+      </c>
+      <c r="P15">
         <v>0.06</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>0.06</v>
-      </c>
-      <c r="R15">
-        <v>0.17</v>
       </c>
       <c r="S15">
         <v>0.17</v>
@@ -2891,9 +2864,12 @@
         <v>0.17</v>
       </c>
       <c r="U15">
+        <v>0.17</v>
+      </c>
+      <c r="V15">
         <v>0.42</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.42</v>
       </c>
     </row>
@@ -2904,175 +2880,187 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2">
+        <v>0.02</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.01</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.01</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.01</v>
+      </c>
+      <c r="R2">
+        <v>0.01</v>
+      </c>
+      <c r="S2">
+        <v>3.78</v>
+      </c>
+      <c r="T2">
+        <v>0.01</v>
+      </c>
+      <c r="U2">
+        <v>0.01</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
+      <c r="D3">
         <v>0.02</v>
       </c>
-      <c r="C2">
+      <c r="E3">
         <v>0.02</v>
       </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2">
-        <v>0.01</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.01</v>
-      </c>
-      <c r="J2">
-        <v>0.068</v>
-      </c>
-      <c r="K2">
-        <v>0.01</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.01</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.01</v>
-      </c>
-      <c r="P2">
-        <v>0.01</v>
-      </c>
-      <c r="Q2">
-        <v>3.78</v>
-      </c>
-      <c r="R2">
-        <v>0.01</v>
-      </c>
-      <c r="S2">
-        <v>0.01</v>
-      </c>
-      <c r="T2">
-        <v>0.01</v>
-      </c>
-      <c r="U2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3">
-        <v>0.02</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
         <v>0.042</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.042</v>
-      </c>
-      <c r="K3">
-        <v>0.015</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3081,22 +3069,22 @@
         <v>0.015</v>
       </c>
       <c r="N3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="P3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q3">
+        <v>0.01</v>
+      </c>
+      <c r="R3">
+        <v>0.01</v>
+      </c>
+      <c r="S3">
         <v>3.78</v>
-      </c>
-      <c r="R3">
-        <v>0.015</v>
-      </c>
-      <c r="S3">
-        <v>0.015</v>
       </c>
       <c r="T3">
         <v>0.015</v>
@@ -3104,37 +3092,43 @@
       <c r="U3">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>79</v>
+      <c r="V3">
+        <v>0.015</v>
+      </c>
+      <c r="W3">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2014</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
         <v>0.09</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>0.09</v>
       </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.02</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>0.02</v>
       </c>
       <c r="J4">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0.02</v>
@@ -3146,22 +3140,22 @@
         <v>0.02</v>
       </c>
       <c r="N4">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0.02</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>0.02</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>0.02</v>
+      </c>
+      <c r="S4">
         <v>4.16</v>
-      </c>
-      <c r="R4">
-        <v>-0.228</v>
-      </c>
-      <c r="S4">
-        <v>-0.147</v>
       </c>
       <c r="T4">
         <v>-0.228</v>
@@ -3169,37 +3163,43 @@
       <c r="U4">
         <v>-0.147</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>80</v>
+      <c r="V4">
+        <v>-0.228</v>
+      </c>
+      <c r="W4">
+        <v>-0.147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
         <v>0.08</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>0.08</v>
       </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G5">
-        <v>0.01</v>
-      </c>
-      <c r="H5">
-        <v>1.46</v>
-      </c>
       <c r="I5">
         <v>0.01</v>
       </c>
       <c r="J5">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0.01</v>
@@ -3217,57 +3217,63 @@
         <v>0.01</v>
       </c>
       <c r="P5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q5">
+        <v>0.01</v>
+      </c>
+      <c r="R5">
+        <v>0.01</v>
+      </c>
+      <c r="S5">
         <v>4.16</v>
       </c>
-      <c r="R5">
-        <v>0.01</v>
-      </c>
-      <c r="S5">
-        <v>0.01</v>
-      </c>
       <c r="T5">
         <v>0.01</v>
       </c>
       <c r="U5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>81</v>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2014</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
         <v>0.05</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>0.05</v>
       </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.04</v>
-      </c>
-      <c r="G6">
-        <v>0.082</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
       <c r="I6">
         <v>0.082</v>
       </c>
       <c r="J6">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.049</v>
+        <v>0.082</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3282,16 +3288,16 @@
         <v>0.049</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>0.049</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
+        <v>0.049</v>
+      </c>
+      <c r="S6">
         <v>4.16</v>
-      </c>
-      <c r="R6">
-        <v>0.11</v>
-      </c>
-      <c r="S6">
-        <v>0.11</v>
       </c>
       <c r="T6">
         <v>0.11</v>
@@ -3299,40 +3305,46 @@
       <c r="U6">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>82</v>
+      <c r="V6">
+        <v>0.11</v>
+      </c>
+      <c r="W6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2014</v>
       </c>
       <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
         <v>1.46</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1.46</v>
       </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.042</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
       </c>
       <c r="I7">
         <v>0.042</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0.042</v>
-      </c>
-      <c r="K7">
-        <v>0.015</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3341,60 +3353,66 @@
         <v>0.015</v>
       </c>
       <c r="N7">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="P7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q7">
+        <v>0.01</v>
+      </c>
+      <c r="R7">
+        <v>0.01</v>
+      </c>
+      <c r="S7">
         <v>4.16</v>
       </c>
-      <c r="R7">
-        <v>0.01</v>
-      </c>
-      <c r="S7">
-        <v>0.01</v>
-      </c>
       <c r="T7">
         <v>0.01</v>
       </c>
       <c r="U7">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>83</v>
+      <c r="V7">
+        <v>0.01</v>
+      </c>
+      <c r="W7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2015</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
         <v>3.66</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>3.66</v>
       </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.12</v>
-      </c>
-      <c r="G8">
-        <v>0.04</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
       </c>
       <c r="I8">
         <v>0.04</v>
       </c>
       <c r="J8">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0.04</v>
@@ -3406,22 +3424,22 @@
         <v>0.04</v>
       </c>
       <c r="N8">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0.04</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>0.04</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
+        <v>0.04</v>
+      </c>
+      <c r="S8">
         <v>4.16</v>
-      </c>
-      <c r="R8">
-        <v>0.08</v>
-      </c>
-      <c r="S8">
-        <v>0.08</v>
       </c>
       <c r="T8">
         <v>0.08</v>
@@ -3429,37 +3447,43 @@
       <c r="U8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>84</v>
+      <c r="V8">
+        <v>0.08</v>
+      </c>
+      <c r="W8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2015</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
         <v>0.4</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>0.4</v>
       </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.17</v>
-      </c>
-      <c r="G9">
-        <v>-0.03</v>
-      </c>
-      <c r="H9">
-        <v>1.46</v>
       </c>
       <c r="I9">
         <v>-0.03</v>
       </c>
       <c r="J9">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>-0.03</v>
@@ -3477,16 +3501,16 @@
         <v>-0.03</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>-0.03</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
+        <v>-0.03</v>
+      </c>
+      <c r="S9">
         <v>4.16</v>
-      </c>
-      <c r="R9">
-        <v>-0.08</v>
-      </c>
-      <c r="S9">
-        <v>-0.08</v>
       </c>
       <c r="T9">
         <v>-0.08</v>
@@ -3494,37 +3518,43 @@
       <c r="U9">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>85</v>
+      <c r="V9">
+        <v>-0.08</v>
+      </c>
+      <c r="W9">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2015</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
         <v>0.44</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>0.44</v>
       </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.09</v>
-      </c>
-      <c r="G10">
-        <v>0.06</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
       </c>
       <c r="I10">
         <v>0.06</v>
       </c>
       <c r="J10">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0.06</v>
@@ -3542,16 +3572,16 @@
         <v>0.06</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>0.06</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
+        <v>0.06</v>
+      </c>
+      <c r="S10">
         <v>4.16</v>
-      </c>
-      <c r="R10">
-        <v>0.14</v>
-      </c>
-      <c r="S10">
-        <v>0.14</v>
       </c>
       <c r="T10">
         <v>0.14</v>
@@ -3559,37 +3589,43 @@
       <c r="U10">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>86</v>
+      <c r="V10">
+        <v>0.14</v>
+      </c>
+      <c r="W10">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2015</v>
       </c>
       <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
         <v>0.29</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>0.29</v>
       </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.12</v>
       </c>
-      <c r="G11">
-        <v>0.01</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0.01</v>
       </c>
       <c r="J11">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0.01</v>
@@ -3601,111 +3637,123 @@
         <v>0.01</v>
       </c>
       <c r="N11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0.01</v>
       </c>
       <c r="P11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q11">
+        <v>0.01</v>
+      </c>
+      <c r="R11">
+        <v>0.01</v>
+      </c>
+      <c r="S11">
         <v>4.16</v>
       </c>
-      <c r="R11">
-        <v>0.01</v>
-      </c>
-      <c r="S11">
-        <v>0.01</v>
-      </c>
       <c r="T11">
         <v>0.01</v>
       </c>
       <c r="U11">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>87</v>
+      <c r="V11">
+        <v>0.01</v>
+      </c>
+      <c r="W11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2016</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
         <v>0.12</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>0.12</v>
       </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.02</v>
-      </c>
-      <c r="G12">
-        <v>0.08</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
       </c>
       <c r="I12">
         <v>0.08</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0.08</v>
       </c>
-      <c r="K12">
-        <v>0.01</v>
-      </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="M12">
         <v>0.01</v>
       </c>
       <c r="N12">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0.01</v>
       </c>
       <c r="P12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q12">
+        <v>0.01</v>
+      </c>
+      <c r="R12">
+        <v>0.01</v>
+      </c>
+      <c r="S12">
         <v>4.16</v>
       </c>
-      <c r="R12">
-        <v>0.01</v>
-      </c>
-      <c r="S12">
-        <v>0.01</v>
-      </c>
       <c r="T12">
         <v>0.01</v>
       </c>
       <c r="U12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>88</v>
+      <c r="V12">
+        <v>0.01</v>
+      </c>
+      <c r="W12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
         <v>0.03</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>0.03</v>
       </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
         <v>0.01</v>
       </c>
@@ -3713,19 +3761,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.46</v>
+        <v>0.01</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0.145</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K13">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
       </c>
       <c r="M13">
         <v>-0.07000000000000001</v>
@@ -3737,16 +3785,16 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S13">
         <v>4.16</v>
-      </c>
-      <c r="R13">
-        <v>-0.18</v>
-      </c>
-      <c r="S13">
-        <v>-0.18</v>
       </c>
       <c r="T13">
         <v>-0.18</v>
@@ -3754,43 +3802,49 @@
       <c r="U13">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>89</v>
+      <c r="V13">
+        <v>-0.18</v>
+      </c>
+      <c r="W13">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2016</v>
       </c>
       <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
         <v>0.02</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>0.02</v>
       </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
         <v>0.01</v>
       </c>
       <c r="G14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
         <v>0.02</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.02</v>
+      </c>
+      <c r="L14">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K14">
-        <v>-0.06</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
       </c>
       <c r="M14">
         <v>-0.06</v>
@@ -3802,16 +3856,16 @@
         <v>-0.06</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>-0.06</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
+        <v>-0.06</v>
+      </c>
+      <c r="S14">
         <v>4.16</v>
-      </c>
-      <c r="R14">
-        <v>-0.14</v>
-      </c>
-      <c r="S14">
-        <v>-0.14</v>
       </c>
       <c r="T14">
         <v>-0.14</v>
@@ -3819,64 +3873,70 @@
       <c r="U14">
         <v>-0.14</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>90</v>
+      <c r="V14">
+        <v>-0.14</v>
+      </c>
+      <c r="W14">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2016</v>
       </c>
       <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D15">
-        <v>0.01</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0.05</v>
       </c>
-      <c r="G15">
-        <v>0.01</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0.01</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+      <c r="L15">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K15">
-        <v>-0.06</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
       <c r="M15">
         <v>-0.06</v>
       </c>
       <c r="N15">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>-0.06</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>-0.06</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
+        <v>-0.06</v>
+      </c>
+      <c r="S15">
         <v>4.16</v>
-      </c>
-      <c r="R15">
-        <v>-0.15</v>
-      </c>
-      <c r="S15">
-        <v>-0.15</v>
       </c>
       <c r="T15">
         <v>-0.15</v>
@@ -3884,64 +3944,70 @@
       <c r="U15">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>91</v>
+      <c r="V15">
+        <v>-0.15</v>
+      </c>
+      <c r="W15">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2017</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
         <v>0.02</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>0.02</v>
       </c>
-      <c r="D16">
-        <v>0.01</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0.02</v>
-      </c>
-      <c r="G16">
-        <v>-0.008</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
       </c>
       <c r="I16">
         <v>-0.008</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-0.008</v>
+      </c>
+      <c r="L16">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K16">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
       </c>
       <c r="M16">
         <v>-0.07000000000000001</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="P16">
         <v>-0.08</v>
       </c>
-      <c r="O16">
-        <v>0.01</v>
-      </c>
-      <c r="P16">
-        <v>0.01</v>
-      </c>
       <c r="Q16">
+        <v>0.01</v>
+      </c>
+      <c r="R16">
+        <v>0.01</v>
+      </c>
+      <c r="S16">
         <v>4.16</v>
-      </c>
-      <c r="R16">
-        <v>0.03</v>
-      </c>
-      <c r="S16">
-        <v>0.03</v>
       </c>
       <c r="T16">
         <v>0.03</v>
@@ -3949,43 +4015,49 @@
       <c r="U16">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>92</v>
+      <c r="V16">
+        <v>0.03</v>
+      </c>
+      <c r="W16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>2017</v>
       </c>
       <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
         <v>1.1</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>1.1</v>
       </c>
-      <c r="D17">
-        <v>0.01</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>0.01</v>
       </c>
       <c r="G17">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1.46</v>
+        <v>0.01</v>
       </c>
       <c r="I17">
         <v>0.02</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.02</v>
+      </c>
+      <c r="L17">
         <v>0.06</v>
-      </c>
-      <c r="K17">
-        <v>-0.04</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
       </c>
       <c r="M17">
         <v>-0.04</v>
@@ -3997,16 +4069,16 @@
         <v>-0.04</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>-0.04</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
+        <v>-0.04</v>
+      </c>
+      <c r="S17">
         <v>4.16</v>
-      </c>
-      <c r="R17">
-        <v>-0.1</v>
-      </c>
-      <c r="S17">
-        <v>-0.1</v>
       </c>
       <c r="T17">
         <v>-0.1</v>
@@ -4014,19 +4086,25 @@
       <c r="U17">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>93</v>
+      <c r="V17">
+        <v>-0.1</v>
+      </c>
+      <c r="W17">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>2017</v>
       </c>
       <c r="B18">
-        <v>0.306</v>
-      </c>
-      <c r="C18">
-        <v>0.306</v>
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4035,22 +4113,22 @@
         <v>0.01</v>
       </c>
       <c r="G18">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I18">
         <v>-0.02</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>-0.02</v>
+      </c>
+      <c r="L18">
         <v>0.06</v>
-      </c>
-      <c r="K18">
-        <v>-0.08</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
       </c>
       <c r="M18">
         <v>-0.08</v>
@@ -4062,16 +4140,16 @@
         <v>-0.08</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>-0.08</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
+        <v>-0.08</v>
+      </c>
+      <c r="S18">
         <v>4.16</v>
-      </c>
-      <c r="R18">
-        <v>-0.19</v>
-      </c>
-      <c r="S18">
-        <v>-0.19</v>
       </c>
       <c r="T18">
         <v>-0.19</v>
@@ -4079,64 +4157,70 @@
       <c r="U18">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="V18">
+        <v>-0.19</v>
+      </c>
+      <c r="W18">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2017</v>
       </c>
       <c r="B19">
-        <v>0.55</v>
-      </c>
-      <c r="C19">
-        <v>0.55</v>
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
+        <v>0.01</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0.03</v>
-      </c>
-      <c r="G19">
-        <v>-0.04</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
       </c>
       <c r="I19">
         <v>-0.04</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>-0.04</v>
+      </c>
+      <c r="L19">
         <v>0.06</v>
-      </c>
-      <c r="K19">
-        <v>-0.1</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
       </c>
       <c r="M19">
         <v>-0.1</v>
       </c>
       <c r="N19">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>-0.1</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>-0.1</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
+        <v>-0.1</v>
+      </c>
+      <c r="S19">
         <v>4.16</v>
-      </c>
-      <c r="R19">
-        <v>-0.24</v>
-      </c>
-      <c r="S19">
-        <v>-0.24</v>
       </c>
       <c r="T19">
         <v>-0.24</v>
@@ -4144,64 +4228,70 @@
       <c r="U19">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>95</v>
+      <c r="V19">
+        <v>-0.24</v>
+      </c>
+      <c r="W19">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>2018</v>
       </c>
       <c r="B20">
-        <v>0.657</v>
-      </c>
-      <c r="C20">
-        <v>0.657</v>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0.02</v>
-      </c>
-      <c r="G20">
-        <v>-0.03</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
       </c>
       <c r="I20">
         <v>-0.03</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-0.03</v>
+      </c>
+      <c r="L20">
         <v>0.06</v>
-      </c>
-      <c r="K20">
-        <v>-0.09</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
       </c>
       <c r="M20">
         <v>-0.09</v>
       </c>
       <c r="N20">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>-0.09</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>-0.09</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
+        <v>-0.09</v>
+      </c>
+      <c r="S20">
         <v>4.16</v>
-      </c>
-      <c r="R20">
-        <v>-0.22</v>
-      </c>
-      <c r="S20">
-        <v>-0.22</v>
       </c>
       <c r="T20">
         <v>-0.22</v>
@@ -4209,43 +4299,49 @@
       <c r="U20">
         <v>-0.22</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>96</v>
+      <c r="V20">
+        <v>-0.22</v>
+      </c>
+      <c r="W20">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>2018</v>
       </c>
       <c r="B21">
-        <v>1.13</v>
-      </c>
-      <c r="C21">
-        <v>1.13</v>
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0.04</v>
-      </c>
-      <c r="G21">
-        <v>-0.04</v>
-      </c>
-      <c r="H21">
-        <v>1.46</v>
       </c>
       <c r="I21">
         <v>-0.04</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-0.04</v>
+      </c>
+      <c r="L21">
         <v>0.08</v>
-      </c>
-      <c r="K21">
-        <v>-0.12</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
       </c>
       <c r="M21">
         <v>-0.12</v>
@@ -4257,16 +4353,16 @@
         <v>-0.12</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>-0.12</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
+        <v>-0.12</v>
+      </c>
+      <c r="S21">
         <v>4.16</v>
-      </c>
-      <c r="R21">
-        <v>-0.28</v>
-      </c>
-      <c r="S21">
-        <v>-0.28</v>
       </c>
       <c r="T21">
         <v>-0.28</v>
@@ -4274,43 +4370,49 @@
       <c r="U21">
         <v>-0.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" t="s">
-        <v>97</v>
+      <c r="V21">
+        <v>-0.28</v>
+      </c>
+      <c r="W21">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>2018</v>
       </c>
       <c r="B22">
-        <v>0.306</v>
-      </c>
-      <c r="C22">
-        <v>0.306</v>
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0.08400000000000001</v>
-      </c>
-      <c r="G22">
-        <v>-0.01</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
       </c>
       <c r="I22">
         <v>-0.01</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-0.01</v>
+      </c>
+      <c r="L22">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K22">
-        <v>-0.08</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
       </c>
       <c r="M22">
         <v>-0.08</v>
@@ -4322,16 +4424,16 @@
         <v>-0.08</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>-0.08</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
+        <v>-0.08</v>
+      </c>
+      <c r="S22">
         <v>4.16</v>
-      </c>
-      <c r="R22">
-        <v>-0.2</v>
-      </c>
-      <c r="S22">
-        <v>-0.2</v>
       </c>
       <c r="T22">
         <v>-0.2</v>
@@ -4339,64 +4441,70 @@
       <c r="U22">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" t="s">
-        <v>98</v>
+      <c r="V22">
+        <v>-0.2</v>
+      </c>
+      <c r="W22">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>2018</v>
       </c>
       <c r="B23">
-        <v>0.55</v>
-      </c>
-      <c r="C23">
-        <v>0.55</v>
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I23">
         <v>-0.01</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-0.01</v>
+      </c>
+      <c r="L23">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K23">
-        <v>-0.09</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
       </c>
       <c r="M23">
         <v>-0.09</v>
       </c>
       <c r="N23">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>-0.09</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>-0.09</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
+        <v>-0.09</v>
+      </c>
+      <c r="S23">
         <v>4.16</v>
-      </c>
-      <c r="R23">
-        <v>-0.21</v>
-      </c>
-      <c r="S23">
-        <v>-0.21</v>
       </c>
       <c r="T23">
         <v>-0.21</v>
@@ -4404,64 +4512,70 @@
       <c r="U23">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>99</v>
+      <c r="V23">
+        <v>-0.21</v>
+      </c>
+      <c r="W23">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>2019</v>
       </c>
       <c r="B24">
-        <v>0.657</v>
-      </c>
-      <c r="C24">
-        <v>0.657</v>
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0.02</v>
-      </c>
-      <c r="G24">
-        <v>-0.03</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
       </c>
       <c r="I24">
         <v>-0.03</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-0.03</v>
+      </c>
+      <c r="L24">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K24">
-        <v>-0.09</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
       </c>
       <c r="M24">
         <v>-0.09</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>-0.09</v>
+      </c>
+      <c r="P24">
         <v>-0.06</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>-0.03</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>-0.03</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>4.16</v>
-      </c>
-      <c r="R24">
-        <v>-0.08</v>
-      </c>
-      <c r="S24">
-        <v>-0.08</v>
       </c>
       <c r="T24">
         <v>-0.08</v>
@@ -4469,43 +4583,49 @@
       <c r="U24">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>100</v>
+      <c r="V24">
+        <v>-0.08</v>
+      </c>
+      <c r="W24">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>2019</v>
       </c>
       <c r="B25">
-        <v>1.13</v>
-      </c>
-      <c r="C25">
-        <v>1.13</v>
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0.053</v>
-      </c>
-      <c r="G25">
-        <v>-0.01</v>
-      </c>
-      <c r="H25">
-        <v>1.46</v>
       </c>
       <c r="I25">
         <v>-0.01</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-0.01</v>
+      </c>
+      <c r="L25">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K25">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
       </c>
       <c r="M25">
         <v>-0.07000000000000001</v>
@@ -4517,16 +4637,16 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S25">
         <v>4.16</v>
-      </c>
-      <c r="R25">
-        <v>-0.18</v>
-      </c>
-      <c r="S25">
-        <v>-0.18</v>
       </c>
       <c r="T25">
         <v>-0.18</v>
@@ -4534,43 +4654,49 @@
       <c r="U25">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>101</v>
+      <c r="V25">
+        <v>-0.18</v>
+      </c>
+      <c r="W25">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>2019</v>
       </c>
       <c r="B26">
-        <v>0.306</v>
-      </c>
-      <c r="C26">
-        <v>0.306</v>
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0.02</v>
-      </c>
-      <c r="G26">
-        <v>-0.02</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
       </c>
       <c r="I26">
         <v>-0.02</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>-0.02</v>
+      </c>
+      <c r="L26">
         <v>0.06</v>
-      </c>
-      <c r="K26">
-        <v>-0.09</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
       </c>
       <c r="M26">
         <v>-0.09</v>
@@ -4582,16 +4708,16 @@
         <v>-0.09</v>
       </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>-0.09</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
+        <v>-0.09</v>
+      </c>
+      <c r="S26">
         <v>4.16</v>
-      </c>
-      <c r="R26">
-        <v>-0.21</v>
-      </c>
-      <c r="S26">
-        <v>-0.21</v>
       </c>
       <c r="T26">
         <v>-0.21</v>
@@ -4599,64 +4725,70 @@
       <c r="U26">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" t="s">
-        <v>102</v>
+      <c r="V26">
+        <v>-0.21</v>
+      </c>
+      <c r="W26">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>2019</v>
       </c>
       <c r="B27">
-        <v>0.55</v>
-      </c>
-      <c r="C27">
-        <v>0.55</v>
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
       </c>
       <c r="D27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0.04</v>
-      </c>
-      <c r="G27">
-        <v>-0.04</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
       </c>
       <c r="I27">
         <v>-0.04</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>-0.04</v>
+      </c>
+      <c r="L27">
         <v>0.06</v>
-      </c>
-      <c r="K27">
-        <v>-0.1</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
       </c>
       <c r="M27">
         <v>-0.1</v>
       </c>
       <c r="N27">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>-0.1</v>
       </c>
       <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>-0.1</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
+        <v>-0.1</v>
+      </c>
+      <c r="S27">
         <v>4.16</v>
-      </c>
-      <c r="R27">
-        <v>-0.24</v>
-      </c>
-      <c r="S27">
-        <v>-0.24</v>
       </c>
       <c r="T27">
         <v>-0.24</v>
@@ -4664,64 +4796,70 @@
       <c r="U27">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" t="s">
-        <v>103</v>
+      <c r="V27">
+        <v>-0.24</v>
+      </c>
+      <c r="W27">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>2020</v>
       </c>
       <c r="B28">
-        <v>0.657</v>
-      </c>
-      <c r="C28">
-        <v>0.657</v>
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I28">
         <v>-0.02</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>-0.02</v>
+      </c>
+      <c r="L28">
         <v>0.05</v>
-      </c>
-      <c r="K28">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
       </c>
       <c r="M28">
         <v>-0.07000000000000001</v>
       </c>
       <c r="N28">
-        <v>-0.013</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>-0.07000000000000001</v>
       </c>
       <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S28">
         <v>4.16</v>
-      </c>
-      <c r="R28">
-        <v>-0.16</v>
-      </c>
-      <c r="S28">
-        <v>-0.16</v>
       </c>
       <c r="T28">
         <v>-0.16</v>
@@ -4729,43 +4867,49 @@
       <c r="U28">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>104</v>
+      <c r="V28">
+        <v>-0.16</v>
+      </c>
+      <c r="W28">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>2020</v>
       </c>
       <c r="B29">
-        <v>1.13</v>
-      </c>
-      <c r="C29">
-        <v>1.13</v>
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1.46</v>
+        <v>0.01</v>
       </c>
       <c r="I29">
         <v>-0.01</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-0.01</v>
+      </c>
+      <c r="L29">
         <v>0.05</v>
-      </c>
-      <c r="K29">
-        <v>-0.06</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
       </c>
       <c r="M29">
         <v>-0.06</v>
@@ -4777,16 +4921,16 @@
         <v>-0.06</v>
       </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>-0.06</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
+        <v>-0.06</v>
+      </c>
+      <c r="S29">
         <v>4.16</v>
-      </c>
-      <c r="R29">
-        <v>-0.14</v>
-      </c>
-      <c r="S29">
-        <v>-0.14</v>
       </c>
       <c r="T29">
         <v>-0.14</v>
@@ -4794,43 +4938,49 @@
       <c r="U29">
         <v>-0.14</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" t="s">
-        <v>105</v>
+      <c r="V29">
+        <v>-0.14</v>
+      </c>
+      <c r="W29">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>2020</v>
       </c>
       <c r="B30">
-        <v>0.306</v>
-      </c>
-      <c r="C30">
-        <v>0.306</v>
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I30">
         <v>-0.01</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>-0.01</v>
+      </c>
+      <c r="L30">
         <v>0.08</v>
-      </c>
-      <c r="K30">
-        <v>-0.09</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
       </c>
       <c r="M30">
         <v>-0.09</v>
@@ -4842,16 +4992,16 @@
         <v>-0.09</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>-0.09</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
+        <v>-0.09</v>
+      </c>
+      <c r="S30">
         <v>4.16</v>
-      </c>
-      <c r="R30">
-        <v>-0.22</v>
-      </c>
-      <c r="S30">
-        <v>-0.22</v>
       </c>
       <c r="T30">
         <v>-0.22</v>
@@ -4859,64 +5009,70 @@
       <c r="U30">
         <v>-0.22</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" t="s">
-        <v>106</v>
+      <c r="V30">
+        <v>-0.22</v>
+      </c>
+      <c r="W30">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>2020</v>
       </c>
       <c r="B31">
-        <v>0.55</v>
-      </c>
-      <c r="C31">
-        <v>0.55</v>
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I31">
         <v>-0.01</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-0.01</v>
+      </c>
+      <c r="L31">
         <v>-0.05</v>
-      </c>
-      <c r="K31">
-        <v>0.04</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
       </c>
       <c r="M31">
         <v>0.04</v>
       </c>
       <c r="N31">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0.04</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>0.04</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
+        <v>0.04</v>
+      </c>
+      <c r="S31">
         <v>4.16</v>
-      </c>
-      <c r="R31">
-        <v>0.09</v>
-      </c>
-      <c r="S31">
-        <v>0.09</v>
       </c>
       <c r="T31">
         <v>0.09</v>
@@ -4924,64 +5080,70 @@
       <c r="U31">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" t="s">
-        <v>107</v>
+      <c r="V31">
+        <v>0.09</v>
+      </c>
+      <c r="W31">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>2021</v>
       </c>
       <c r="B32">
-        <v>0.657</v>
-      </c>
-      <c r="C32">
-        <v>0.657</v>
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>0.05</v>
-      </c>
-      <c r="G32">
-        <v>-0.05</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
       </c>
       <c r="I32">
         <v>-0.05</v>
       </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-0.05</v>
+      </c>
+      <c r="L32">
         <v>0.18</v>
-      </c>
-      <c r="K32">
-        <v>-0.24</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
       </c>
       <c r="M32">
         <v>-0.24</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>-0.24</v>
+      </c>
+      <c r="P32">
         <v>-0.09</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>-0.15</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>-0.15</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>4.16</v>
-      </c>
-      <c r="R32">
-        <v>-0.35</v>
-      </c>
-      <c r="S32">
-        <v>-0.35</v>
       </c>
       <c r="T32">
         <v>-0.35</v>
@@ -4989,37 +5151,43 @@
       <c r="U32">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" t="s">
-        <v>108</v>
+      <c r="V32">
+        <v>-0.35</v>
+      </c>
+      <c r="W32">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>2021</v>
       </c>
       <c r="B33">
-        <v>1.13</v>
-      </c>
-      <c r="C33">
-        <v>1.13</v>
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
       </c>
       <c r="D33">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0.04</v>
-      </c>
-      <c r="G33">
-        <v>-0.05</v>
-      </c>
-      <c r="H33">
-        <v>1.46</v>
       </c>
       <c r="I33">
         <v>-0.05</v>
       </c>
       <c r="J33">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>-0.05</v>
@@ -5037,16 +5205,16 @@
         <v>-0.05</v>
       </c>
       <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>-0.05</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
+        <v>-0.05</v>
+      </c>
+      <c r="S33">
         <v>4.16</v>
-      </c>
-      <c r="R33">
-        <v>-0.11</v>
-      </c>
-      <c r="S33">
-        <v>-0.11</v>
       </c>
       <c r="T33">
         <v>-0.11</v>
@@ -5054,37 +5222,43 @@
       <c r="U33">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" t="s">
-        <v>109</v>
+      <c r="V33">
+        <v>-0.11</v>
+      </c>
+      <c r="W33">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>2021</v>
       </c>
       <c r="B34">
-        <v>0.306</v>
-      </c>
-      <c r="C34">
-        <v>0.306</v>
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I34">
         <v>-0.01</v>
       </c>
       <c r="J34">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>-0.01</v>
@@ -5102,16 +5276,16 @@
         <v>-0.01</v>
       </c>
       <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>-0.01</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
+        <v>-0.01</v>
+      </c>
+      <c r="S34">
         <v>4.16</v>
-      </c>
-      <c r="R34">
-        <v>-0.02</v>
-      </c>
-      <c r="S34">
-        <v>-0.02</v>
       </c>
       <c r="T34">
         <v>-0.02</v>
@@ -5119,40 +5293,46 @@
       <c r="U34">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" t="s">
-        <v>110</v>
+      <c r="V34">
+        <v>-0.02</v>
+      </c>
+      <c r="W34">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>2021</v>
       </c>
       <c r="B35">
-        <v>0.55</v>
-      </c>
-      <c r="C35">
-        <v>0.55</v>
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0.138</v>
-      </c>
-      <c r="G35">
-        <v>0.042</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
       </c>
       <c r="I35">
         <v>0.042</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>0.042</v>
-      </c>
-      <c r="K35">
-        <v>0.015</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5161,22 +5341,22 @@
         <v>0.015</v>
       </c>
       <c r="N35">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="P35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q35">
+        <v>0.01</v>
+      </c>
+      <c r="R35">
+        <v>0.01</v>
+      </c>
+      <c r="S35">
         <v>4.16</v>
-      </c>
-      <c r="R35">
-        <v>-0.01</v>
-      </c>
-      <c r="S35">
-        <v>-0.01</v>
       </c>
       <c r="T35">
         <v>-0.01</v>
@@ -5184,64 +5364,70 @@
       <c r="U35">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" t="s">
-        <v>111</v>
+      <c r="V35">
+        <v>-0.01</v>
+      </c>
+      <c r="W35">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>2022</v>
       </c>
       <c r="B36">
-        <v>0.657</v>
-      </c>
-      <c r="C36">
-        <v>0.657</v>
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>0.02</v>
-      </c>
-      <c r="G36">
-        <v>-0.03</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
       </c>
       <c r="I36">
         <v>-0.03</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-0.03</v>
+      </c>
+      <c r="L36">
         <v>0.25</v>
-      </c>
-      <c r="K36">
-        <v>-0.27</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
       </c>
       <c r="M36">
         <v>-0.27</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>-0.27</v>
+      </c>
+      <c r="P36">
         <v>-0.08</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>-0.19</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>-0.19</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>4.16</v>
-      </c>
-      <c r="R36">
-        <v>-0.46</v>
-      </c>
-      <c r="S36">
-        <v>-0.46</v>
       </c>
       <c r="T36">
         <v>-0.46</v>
@@ -5249,37 +5435,43 @@
       <c r="U36">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>112</v>
+      <c r="V36">
+        <v>-0.46</v>
+      </c>
+      <c r="W36">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>2022</v>
       </c>
       <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37">
         <v>0.15</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>0.15</v>
       </c>
-      <c r="D37">
-        <v>0.01</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>0.05</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.1</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>1.46</v>
-      </c>
-      <c r="I37">
-        <v>1.55</v>
-      </c>
-      <c r="J37">
-        <v>0.066</v>
       </c>
       <c r="K37">
         <v>1.55</v>
@@ -5297,16 +5489,16 @@
         <v>1.55</v>
       </c>
       <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>1.55</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
+        <v>1.55</v>
+      </c>
+      <c r="S37">
         <v>4.16</v>
-      </c>
-      <c r="R37">
-        <v>3.74</v>
-      </c>
-      <c r="S37">
-        <v>3.74</v>
       </c>
       <c r="T37">
         <v>3.74</v>
@@ -5314,37 +5506,43 @@
       <c r="U37">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" t="s">
-        <v>113</v>
+      <c r="V37">
+        <v>3.74</v>
+      </c>
+      <c r="W37">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>2022</v>
       </c>
       <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38">
         <v>1.23</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>1.23</v>
       </c>
-      <c r="D38">
-        <v>0.01</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0.59</v>
-      </c>
-      <c r="G38">
-        <v>0.63</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
       </c>
       <c r="I38">
         <v>0.63</v>
       </c>
       <c r="J38">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0.63</v>
@@ -5362,16 +5560,16 @@
         <v>0.63</v>
       </c>
       <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>0.63</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
+        <v>0.63</v>
+      </c>
+      <c r="S38">
         <v>4.16</v>
-      </c>
-      <c r="R38">
-        <v>1.51</v>
-      </c>
-      <c r="S38">
-        <v>1.51</v>
       </c>
       <c r="T38">
         <v>1.51</v>
@@ -5379,37 +5577,43 @@
       <c r="U38">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" t="s">
-        <v>114</v>
+      <c r="V38">
+        <v>1.51</v>
+      </c>
+      <c r="W38">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>2022</v>
       </c>
       <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
         <v>1.35</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>1.35</v>
       </c>
-      <c r="D39">
-        <v>0.01</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>1.03</v>
-      </c>
-      <c r="G39">
-        <v>0.32</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
       </c>
       <c r="I39">
         <v>0.32</v>
       </c>
       <c r="J39">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0.32</v>
@@ -5421,22 +5625,22 @@
         <v>0.32</v>
       </c>
       <c r="N39">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>0.32</v>
       </c>
       <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>0.32</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
+        <v>0.32</v>
+      </c>
+      <c r="S39">
         <v>4.16</v>
-      </c>
-      <c r="R39">
-        <v>0.76</v>
-      </c>
-      <c r="S39">
-        <v>0.76</v>
       </c>
       <c r="T39">
         <v>0.76</v>
@@ -5444,64 +5648,70 @@
       <c r="U39">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" t="s">
-        <v>115</v>
+      <c r="V39">
+        <v>0.76</v>
+      </c>
+      <c r="W39">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>2023</v>
       </c>
       <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40">
         <v>0.04</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>0.04</v>
       </c>
-      <c r="D40">
-        <v>0.01</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0.03</v>
-      </c>
-      <c r="G40">
-        <v>-0.008</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
       </c>
       <c r="I40">
         <v>-0.008</v>
       </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>-0.008</v>
+      </c>
+      <c r="L40">
         <v>0.18</v>
-      </c>
-      <c r="K40">
-        <v>-0.19</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
       </c>
       <c r="M40">
         <v>-0.19</v>
       </c>
       <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>-0.19</v>
+      </c>
+      <c r="P40">
         <v>0.21</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>-0.4</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>-0.4</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>4.16</v>
-      </c>
-      <c r="R40">
-        <v>-0.96</v>
-      </c>
-      <c r="S40">
-        <v>-0.147</v>
       </c>
       <c r="T40">
         <v>-0.96</v>
@@ -5509,37 +5719,43 @@
       <c r="U40">
         <v>-0.147</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" t="s">
-        <v>116</v>
+      <c r="V40">
+        <v>-0.96</v>
+      </c>
+      <c r="W40">
+        <v>-0.147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>2023</v>
       </c>
       <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
         <v>0.15</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>0.15</v>
       </c>
-      <c r="D41">
-        <v>0.01</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0.04</v>
-      </c>
-      <c r="G41">
-        <v>0.11</v>
-      </c>
-      <c r="H41">
-        <v>1.46</v>
       </c>
       <c r="I41">
         <v>0.11</v>
       </c>
       <c r="J41">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0.11</v>
@@ -5557,16 +5773,16 @@
         <v>0.11</v>
       </c>
       <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>0.11</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
+        <v>0.11</v>
+      </c>
+      <c r="S41">
         <v>4.16</v>
-      </c>
-      <c r="R41">
-        <v>0.26</v>
-      </c>
-      <c r="S41">
-        <v>0.26</v>
       </c>
       <c r="T41">
         <v>0.26</v>
@@ -5574,37 +5790,43 @@
       <c r="U41">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" t="s">
-        <v>117</v>
+      <c r="V41">
+        <v>0.26</v>
+      </c>
+      <c r="W41">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>2023</v>
       </c>
       <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42">
         <v>0.09</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>0.09</v>
       </c>
-      <c r="D42">
-        <v>0.01</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I42">
         <v>0.08</v>
       </c>
       <c r="J42">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0.08</v>
@@ -5622,16 +5844,16 @@
         <v>0.08</v>
       </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>0.08</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
+        <v>0.08</v>
+      </c>
+      <c r="S42">
         <v>4.16</v>
-      </c>
-      <c r="R42">
-        <v>0.19</v>
-      </c>
-      <c r="S42">
-        <v>0.19</v>
       </c>
       <c r="T42">
         <v>0.19</v>
@@ -5639,37 +5861,43 @@
       <c r="U42">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" t="s">
-        <v>118</v>
+      <c r="V42">
+        <v>0.19</v>
+      </c>
+      <c r="W42">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>2023</v>
       </c>
       <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43">
         <v>0.11</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>0.11</v>
       </c>
-      <c r="D43">
-        <v>0.01</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I43">
         <v>0.1</v>
       </c>
       <c r="J43">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0.1</v>
@@ -5681,22 +5909,22 @@
         <v>0.1</v>
       </c>
       <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0.1</v>
+      </c>
+      <c r="P43">
         <v>0.04</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>0.06</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>0.06</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>4.16</v>
-      </c>
-      <c r="R43">
-        <v>0.13</v>
-      </c>
-      <c r="S43">
-        <v>0.13</v>
       </c>
       <c r="T43">
         <v>0.13</v>
@@ -5704,37 +5932,43 @@
       <c r="U43">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" t="s">
-        <v>119</v>
+      <c r="V43">
+        <v>0.13</v>
+      </c>
+      <c r="W43">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>2024</v>
       </c>
       <c r="B44">
-        <v>0.01</v>
-      </c>
-      <c r="C44">
-        <v>0.01</v>
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
       </c>
       <c r="D44">
         <v>0.01</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>0.06</v>
-      </c>
-      <c r="G44">
-        <v>-0.05</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
       </c>
       <c r="I44">
         <v>-0.05</v>
       </c>
       <c r="J44">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>-0.05</v>
@@ -5746,22 +5980,22 @@
         <v>-0.05</v>
       </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>-0.05</v>
+      </c>
+      <c r="P44">
         <v>0.02</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>4.16</v>
-      </c>
-      <c r="R44">
-        <v>-0.17</v>
-      </c>
-      <c r="S44">
-        <v>-0.17</v>
       </c>
       <c r="T44">
         <v>-0.17</v>
@@ -5769,37 +6003,43 @@
       <c r="U44">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" t="s">
-        <v>120</v>
+      <c r="V44">
+        <v>-0.17</v>
+      </c>
+      <c r="W44">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>2024</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45">
         <v>6</v>
       </c>
-      <c r="D45">
-        <v>0.01</v>
-      </c>
       <c r="E45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>0.09</v>
-      </c>
-      <c r="G45">
-        <v>-0.1</v>
-      </c>
-      <c r="H45">
-        <v>1.46</v>
       </c>
       <c r="I45">
         <v>-0.1</v>
       </c>
       <c r="J45">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>-0.1</v>
@@ -5817,16 +6057,16 @@
         <v>-0.1</v>
       </c>
       <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>-0.1</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
+        <v>-0.1</v>
+      </c>
+      <c r="S45">
         <v>4.16</v>
-      </c>
-      <c r="R45">
-        <v>-0.24</v>
-      </c>
-      <c r="S45">
-        <v>-0.24</v>
       </c>
       <c r="T45">
         <v>-0.24</v>
@@ -5834,37 +6074,43 @@
       <c r="U45">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" t="s">
-        <v>121</v>
+      <c r="V45">
+        <v>-0.24</v>
+      </c>
+      <c r="W45">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>2024</v>
       </c>
       <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46">
         <v>0.29</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>0.29</v>
       </c>
-      <c r="D46">
-        <v>0.01</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
+        <v>0.01</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>0.12</v>
-      </c>
-      <c r="G46">
-        <v>0.17</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
       </c>
       <c r="I46">
         <v>0.17</v>
       </c>
       <c r="J46">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0.17</v>
@@ -5882,21 +6128,27 @@
         <v>0.17</v>
       </c>
       <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>0.17</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
+        <v>0.17</v>
+      </c>
+      <c r="S46">
         <v>4.63</v>
-      </c>
-      <c r="R46">
-        <v>0.4</v>
-      </c>
-      <c r="S46">
-        <v>0.4</v>
       </c>
       <c r="T46">
         <v>0.4</v>
       </c>
       <c r="U46">
+        <v>0.4</v>
+      </c>
+      <c r="V46">
+        <v>0.4</v>
+      </c>
+      <c r="W46">
         <v>0.4</v>
       </c>
     </row>
@@ -5907,92 +6159,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>2011</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>0.09</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.02</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.53</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.13</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.161</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>20.31</v>
-      </c>
-      <c r="H2">
-        <v>-0.35</v>
       </c>
       <c r="I2">
         <v>-0.35</v>
@@ -6001,14 +6256,14 @@
         <v>-0.35</v>
       </c>
       <c r="K2">
+        <v>-0.35</v>
+      </c>
+      <c r="L2">
         <v>0.445</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.839</v>
       </c>
-      <c r="M2">
-        <v>0.661</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -6019,36 +6274,39 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>16.556</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3.588</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2012</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.02</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.53</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.13</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.161</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>24.44</v>
-      </c>
-      <c r="H3">
-        <v>-1.23</v>
       </c>
       <c r="I3">
         <v>-1.23</v>
@@ -6057,14 +6315,14 @@
         <v>-1.23</v>
       </c>
       <c r="K3">
+        <v>-1.23</v>
+      </c>
+      <c r="L3">
         <v>0.445</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1.839</v>
       </c>
-      <c r="M3">
-        <v>0.661</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -6075,22 +6333,25 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>16.556</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3.588</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2013</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
       <c r="D4">
         <v>0.01</v>
       </c>
@@ -6101,10 +6362,10 @@
         <v>0.01</v>
       </c>
       <c r="G4">
+        <v>0.01</v>
+      </c>
+      <c r="H4">
         <v>16.39</v>
-      </c>
-      <c r="H4">
-        <v>14.05</v>
       </c>
       <c r="I4">
         <v>14.05</v>
@@ -6113,13 +6374,13 @@
         <v>14.05</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>14.05</v>
       </c>
       <c r="L4">
         <v>0.1</v>
       </c>
       <c r="M4">
-        <v>0.661</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -6128,24 +6389,27 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>16.556</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3.588</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.3</v>
-      </c>
-      <c r="C5">
-        <v>0.08</v>
       </c>
       <c r="D5">
         <v>0.08</v>
@@ -6154,28 +6418,28 @@
         <v>0.08</v>
       </c>
       <c r="F5">
+        <v>0.08</v>
+      </c>
+      <c r="G5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>27.79</v>
-      </c>
-      <c r="H5">
-        <v>26.35</v>
       </c>
       <c r="I5">
         <v>26.35</v>
       </c>
       <c r="J5">
+        <v>26.35</v>
+      </c>
+      <c r="K5">
         <v>24.11</v>
-      </c>
-      <c r="K5">
-        <v>0.73</v>
       </c>
       <c r="L5">
         <v>0.73</v>
       </c>
       <c r="M5">
-        <v>0.661</v>
+        <v>0.73</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6184,114 +6448,120 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>16.556</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3.588</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>2015</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>11.43</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.43</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.42</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.11</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.09</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3.76</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.67</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.92</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.75</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.88</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.45</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.63</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>38.42</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>192.81</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>2016</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>2.69</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.79</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.06</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.59</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>29.33</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.98</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2.19</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.59</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.36</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.6</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -6299,55 +6569,58 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>18.33</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>49.75</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>2017</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>0.32</v>
-      </c>
-      <c r="C8">
-        <v>0.06</v>
       </c>
       <c r="D8">
         <v>0.06</v>
       </c>
       <c r="E8">
+        <v>0.06</v>
+      </c>
+      <c r="F8">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.39</v>
-      </c>
-      <c r="G8">
-        <v>18.98</v>
       </c>
       <c r="H8">
         <v>18.98</v>
       </c>
       <c r="I8">
+        <v>18.98</v>
+      </c>
+      <c r="J8">
         <v>-177.56</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-123.91</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-4.12</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-2.63</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.54</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -6355,55 +6628,58 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>10.64</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>382.97</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>2018</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>2.38</v>
-      </c>
-      <c r="C9">
-        <v>-0.14</v>
       </c>
       <c r="D9">
         <v>-0.14</v>
       </c>
       <c r="E9">
+        <v>-0.14</v>
+      </c>
+      <c r="F9">
         <v>-0.67</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.5</v>
-      </c>
-      <c r="G9">
-        <v>-5.85</v>
       </c>
       <c r="H9">
         <v>-5.85</v>
       </c>
       <c r="I9">
+        <v>-5.85</v>
+      </c>
+      <c r="J9">
         <v>-28.38</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-21.21</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-5.61</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-3.6</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.48</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -6411,55 +6687,58 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.83</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-152.49</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>2019</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>2.408</v>
-      </c>
-      <c r="C10">
-        <v>-0.2</v>
       </c>
       <c r="D10">
         <v>-0.2</v>
       </c>
       <c r="E10">
+        <v>-0.2</v>
+      </c>
+      <c r="F10">
         <v>-0.82</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>29.196</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>24.106</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-1.371</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.904</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-8.289999999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-5.01</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.59</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -6467,55 +6746,58 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>9.390000000000001</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-99.48999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>2020</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>2.408</v>
-      </c>
-      <c r="C11">
-        <v>-0.18</v>
       </c>
       <c r="D11">
         <v>-0.18</v>
       </c>
       <c r="E11">
+        <v>-0.18</v>
+      </c>
+      <c r="F11">
         <v>-0.7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.52</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>29.196</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>24.106</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-1.371</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.904</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-6.71</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-3.71</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.7</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -6523,55 +6805,58 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>8.960000000000001</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-105.26</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>2021</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>2.408</v>
-      </c>
-      <c r="C12">
-        <v>-0.19</v>
       </c>
       <c r="D12">
         <v>-0.19</v>
       </c>
       <c r="E12">
+        <v>-0.19</v>
+      </c>
+      <c r="F12">
         <v>-0.76</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>29.196</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>24.106</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-1.371</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.904</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-7.77</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-3.98</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.82</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -6579,55 +6864,58 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>9.18</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-103.78</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>2022</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>2.408</v>
-      </c>
-      <c r="C13">
-        <v>-0.18</v>
       </c>
       <c r="D13">
         <v>-0.18</v>
       </c>
       <c r="E13">
+        <v>-0.18</v>
+      </c>
+      <c r="F13">
         <v>-0.71</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.54</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>29.196</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>24.106</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-1.371</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.904</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-8.09</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-3.83</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.93</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -6635,52 +6923,55 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>17.7</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-217.17</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>2023</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>5.96</v>
-      </c>
-      <c r="C14">
-        <v>5.38</v>
       </c>
       <c r="D14">
         <v>5.38</v>
       </c>
       <c r="E14">
+        <v>5.38</v>
+      </c>
+      <c r="F14">
         <v>4.99</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.52</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>90.23</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>90.18000000000001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>83.58</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>75.81</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>40.38</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>40.05</v>
       </c>
-      <c r="M14">
-        <v>0.661</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
@@ -6691,21 +6982,24 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>24.44</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>9.800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.77</v>
-      </c>
-      <c r="C15">
-        <v>0.51</v>
       </c>
       <c r="D15">
         <v>0.51</v>
@@ -6714,29 +7008,29 @@
         <v>0.51</v>
       </c>
       <c r="F15">
+        <v>0.51</v>
+      </c>
+      <c r="G15">
         <v>0.38</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>66.31999999999999</v>
-      </c>
-      <c r="H15">
-        <v>65.93000000000001</v>
       </c>
       <c r="I15">
         <v>65.93000000000001</v>
       </c>
       <c r="J15">
+        <v>65.93000000000001</v>
+      </c>
+      <c r="K15">
         <v>48.83</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3.25</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3.14</v>
       </c>
-      <c r="M15">
-        <v>0.661</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
@@ -6747,9 +7041,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>18.67</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>78.73999999999999</v>
       </c>
     </row>
